--- a/doc/ue_安装包结构.xlsx
+++ b/doc/ue_安装包结构.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5FD8D2-0744-439E-842E-CEE03BB63F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4082F676-8E0B-4B3D-81D8-823EDBF63D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Project-armv7.apk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>2：否则返回boudle+"/cookeddata/"+filepath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！不进行压缩，直接读取后存在Resource里面，方便定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611BFA62-6C9E-41FF-89C7-44CFDE1B0815}">
   <dimension ref="A4:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -735,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,6 +769,9 @@
       </c>
       <c r="D5" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
